--- a/Document/GameEngineComparison.xlsx
+++ b/Document/GameEngineComparison.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
   <si>
     <t>√</t>
   </si>
@@ -122,22 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    // object id, CCScriptSupport need public m_uID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    unsigned int        m_uID;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    // Lua reference id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int                 m_nLuaID;</t>
-  </si>
-  <si>
-    <t>coco2d 为了嵌入 LUA 给所有的 Object 都增加了这两个属性，复杂度和内存用量都变大了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Auto-Delete pointer system ( RefPtr, PassRefPtr, much easy to code, less memory leak occurred )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,12 +273,75 @@
   <si>
     <t>Image transition effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染效率</t>
+  </si>
+  <si>
+    <t>渲染效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态渲染场景物体调试能力，开启后可以方便的查看渲染队列的绘制流程，帮忙尽快发现渲染瓶颈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态场景渲染功能，开启后可以跳过模型矩阵更新流程，提升渲染效率，对于渲染节点过多的场景提升会比较明显。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景模型动态合并功能，开启后会尽可能的合并场景中的物体，降低DrawCall调用次数，从而提升渲染效率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景渲染树中的模型节点可以拥有独立的位移、旋转和缩放值，不受父节点的影响，强化在渲染层级较复杂的情况下单独控制渲染节点的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎在被加载过程中会进行自校验操作，防止用户进行恶意篡改代码等行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态场景渲染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质动态替换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场景渲染的过程中，材质可以被动态替换，这样能避免在后期效果处理的时候保存各个渲染节点，减少遍历渲染节点的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染节点控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景渲染调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自校验防破解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,6 +552,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -552,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,7 +637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -867,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -918,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -935,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -946,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -963,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -980,13 +1030,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -997,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1031,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1048,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1122,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1150,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1167,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1184,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1201,13 +1251,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1218,13 +1268,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1235,13 +1285,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1252,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1269,13 +1319,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1286,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1303,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1320,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1337,13 +1387,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -1354,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -1371,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1388,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1434,37 +1484,37 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1496,44 +1546,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
+      <c r="A1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>29</v>
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>30</v>
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A35">
+      <formula1>$A$42:$A$42</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
